--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\umode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB72D71-2ECF-4689-9A3C-90DCCF58CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F17EDDB-833E-4288-B6E8-F9E101828D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,19 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
     <sheet name="Comments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="304">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -541,9 +552,6 @@
     <t>"xRET sets the pc to the value stored in the xepc register."</t>
   </si>
   <si>
-    <t>(Assumed to be covered by the exceptions vplan. Should apply regardless of privilege mode.)</t>
-  </si>
-  <si>
     <t>https://docs.openhwgroup.org/projects/cv32e40p-user-manual/index.html</t>
   </si>
   <si>
@@ -568,9 +576,6 @@
     <t>"Triggers can be used for native debugging when action =0. If supported by the hart and desired by the debugger, triggers will often be programmed to have m=0 so that when they fire they cause a breakpoint exception to trap to a more privileged mode."</t>
   </si>
   <si>
-    <t>(Assumed to be covered by the debug/triggers vplan.)</t>
-  </si>
-  <si>
     <t>Wherever there is an "assertion check" with "directed/random test", there is an implicit "check against RM".</t>
   </si>
   <si>
@@ -616,16 +621,10 @@
     <t>"The next two bits (csr[9:8]) encode the lowest privilege level that can access the CSR."</t>
   </si>
   <si>
-    <t>Try all kinds of accesses to all implemented M-level and U-level CSRs while in M-mode and U-mode (cross), ensure appropriate access grant/deny. (This is the responsibility of the CSR vplan. Remember link to coverage here.)</t>
-  </si>
-  <si>
     <t>Mcsratchcsw</t>
   </si>
   <si>
     <t>The clic spec introduces "conditional swapping" of mscratch.</t>
-  </si>
-  <si>
-    <t>(Relevant user-mode related functionality must be handled by the clic vplan.)</t>
   </si>
   <si>
     <t>"xPP fields are WARL fields that can hold only privilege mode x and any implemented privilege
@@ -637,9 +636,6 @@
 Coverage: Instrs attempt (R/W) access.</t>
   </si>
   <si>
-    <t>(Responsibility of Interrupts and Clic vplans.)</t>
-  </si>
-  <si>
     <t>Be in U-mode, execute MRET, ensure that it does not execute like it does in M-mode: Raise illegal exception, priv mode goes to M and not MPP, MPP becomes U, MPRV is unchanged.</t>
   </si>
   <si>
@@ -663,9 +659,6 @@
   <si>
     <t>"When set, enable this trigger for exceptions that are taken from U mode."
 With "etrigger.u=1" trigger condition should be acted upon.</t>
-  </si>
-  <si>
-    <t>(Is the responsibility of the debug/triggers vplan.)</t>
   </si>
   <si>
     <t>(Handled by "Prot" items above. PMA/PMP specifics must also be handled by those vplans.)</t>
@@ -687,9 +680,6 @@
     <t>U-level CSRs may have WARL fields.</t>
   </si>
   <si>
-    <t>(Field specifications is a generic CSR concept and is the responsibility of the CSRs vplan.)</t>
-  </si>
-  <si>
     <t>"If hardware ties mprven to 0 then the external debugger is expected to simulate all the effects of MPRV, including any extensions that affect memory accesses. For these reasons it is recommended to tie mprven to 1."</t>
   </si>
   <si>
@@ -714,23 +704,6 @@
     <t>NExt</t>
   </si>
   <si>
-    <t>N-extension CSRs used to be supported earlier in the legacy of the core's source code.
-The old N-ext CSRs should not be accessible (ustatus, uie, utvec, uscratch, uepc, ucause, utval, uip).</t>
-  </si>
-  <si>
-    <t>(Responsibility of a CSRs vplan. Note "link to coverage" here still.)</t>
-  </si>
-  <si>
-    <t>(Zc vplan and CSRs vplan should be responsible, but link to coverage here too.)</t>
-  </si>
-  <si>
-    <t>(This should be handled by the CSR vplan, but link to coverage here.)</t>
-  </si>
-  <si>
-    <t>U-mode software interrupts are not supported.
-The zero-bits in `mie` and `mip` are always zero, and mcause is never S/U-mode software interrupt.</t>
-  </si>
-  <si>
     <t>Checking: Be in mode y, observe exception and interrupt, check MPP is mode y.
 Cover: Cross U/M with Exc/Int.</t>
   </si>
@@ -758,17 +731,11 @@
     <t>Check that umode never can happen together with MPRV being high.</t>
   </si>
   <si>
-    <t>(CSRs vplan and Exceptions vplan should handle this.)</t>
-  </si>
-  <si>
     <t>Have dcsr.ebreaku=0, be in U-mode, execute ebreak, ensure "normal" ebreak behavior and no debug entry.
 Note: Only need to check that correct exception occurs, priv spec exception details should be part of the Exceptions vplan.</t>
   </si>
   <si>
     <t>(This field is in a DM registers and pertains to subsystem integration, not the core itself.)</t>
-  </si>
-  <si>
-    <t>(The behavior is specified in the user manual. But the effects are debug-specific and not user-mode-specific so it is the responsibility of the debug vplan.)</t>
   </si>
   <si>
     <t>("mprven" is not tied 0.)</t>
@@ -836,6 +803,285 @@
   <si>
     <t>Checking: Handled by "InstrProt" below.
 Coverage: Instr fetched twice (same pc, different prot).</t>
+  </si>
+  <si>
+    <t>Try all kinds of accesses to all implemented M-level and U-level CSRs while in M-mode and U-mode (cross), ensure appropriate access grant/deny.</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: ???</t>
+  </si>
+  <si>
+    <t>(Responsibility of Interrupts and Clic vplans. Link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>(Assumed to be covered by the exceptions vplan. Should apply regardless of privilege mode. Link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>(Is the responsibility of the debug/triggers vplan. Link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>(The behavior is specified in the user manual. But the effects are debug-specific and not user-mode-specific so it is the responsibility of the debug vplan. Link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_no_unsupported_modes
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_umode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_mmode
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_initial_mode
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: ???
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_spp_zero</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_to_mpp
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_mprv_writemstatus_simplified
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_mprv_writempp
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_mprv_writestate
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_mprv_poststate
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mprv_poststate</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_wfi_normal</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_wfi_illegal
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_uret
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ecall_umode_trap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ecall_umode_exception
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ecall_umode_cause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ecall_umode_poststate
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_umode_extensions
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_from_mpp_umode
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_from_mpp_mmode</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_umode_exception
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_umode_nextmode
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_umode_mpp
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mret_umode_mprv
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mcounteren_zeros</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_jvt_access
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prv_entry
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_entry_u
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_entry_m
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: ???
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_prv
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_dret_prv_u
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_dret_prv_m
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_u
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_m
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: ???
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.gen_mcounteren_clear[*].a_check
+DTC: cv32e40s/tests/programs/custom/mcounteren_priv_gen_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_custom_instr
+DTC: cv32e40s/tests/programs/custom/custom_priv_gen_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mpp_mode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_mpp_umode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_mpp_mmode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.gen_try_goto_mode[*].cov_try_goto_mode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.gen_try_goto_mode[*].cov_write_mpp</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prv_supported
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_supported_umode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_supported_mmode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.gen_try_set_prv[*].cov_try_set_prv
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_refetch_as_umode_notrap
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_refetch_as_mmode_notrap
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_refetch_as_umode_trap
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_refetch_as_mmode_trap</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_misa_bits
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_csrreadwrite_mode_umodecsrs
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mscratch_reliable
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_mscratch_changing
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_csrreadwrite_mode_umodecsrs
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_trap_mpp_exception
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_trap_mpp_general
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_trap_mpp_debug
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_mpp_excint</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_traps_mmode
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_interrupt_mmode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_umode_intr
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_umode_notrap
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_prevmode_excint
+DTC: cv32e40s/tests/programs/custom/interrupt_priv_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dmode_mmode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_csrreadwrite
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_loadstore
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mpp</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mprv
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_loadstore_mprv_mpp</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_umode_mprv
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dret_mprv_prv
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>Awaiting new rvfi signals</t>
+  </si>
+  <si>
+    <t>Waiting for Zc vplan linkage</t>
+  </si>
+  <si>
+    <t>Waiting for CLIC vplan linkage.</t>
+  </si>
+  <si>
+    <t>Waiting for interrupts vplans</t>
+  </si>
+  <si>
+    <t>Waiting for exceptions vplan linkage.</t>
+  </si>
+  <si>
+    <t>Waiting for RTL implementation.</t>
+  </si>
+  <si>
+    <t>Waiting for debug vplan linkage.</t>
+  </si>
+  <si>
+    <t>Waiting for RTL bugfix.</t>
+  </si>
+  <si>
+    <t>(Exceptions vplan should handle this. Link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_interrupt_mmode</t>
+  </si>
+  <si>
+    <t>U-mode software interrupts are not supported.</t>
+  </si>
+  <si>
+    <t>Check that the zero-bits in `mie` and `mip` are always zero, and mcause is never S/U-mode software interrupt.</t>
+  </si>
+  <si>
+    <t>N-extension CSRs used to be supported earlier in the legacy of the core's source code.</t>
+  </si>
+  <si>
+    <t>Check that the old N-ext CSRs are not accessible (ustatus, uie, utvec, uscratch, uepc, ucause, utval, uip), and traps upon access attempts.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mcounteren_access
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_mode_csraddr</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_illegal_csr_access
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_mode_csraddr
+DTC: cv32e40s/tests/programs/custom/csr_priv_gen_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_medeleg_mideleg
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_csrreadwrite_mode_umodecsrs
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_softwareinterrupts_zeromie
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_softwareinterrupts_zeromip
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_softwareinterrupts_mcausemode
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_next_csrs
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_mode_csraddr
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>(There is only JVT, and must be handled by the Zc vplan. Link to cov here still.)</t>
+  </si>
+  <si>
+    <t>(Relevant user-mode related functionality must be handled by the CLIC vplan. Link to cov here still)</t>
+  </si>
+  <si>
+    <t>(Zc vplan should be responsible, but link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>Waiting for RTL update.</t>
+  </si>
+  <si>
+    <t>Was waiting for RTL update.</t>
+  </si>
+  <si>
+    <t>(Must be covered by the debug/triggers vplan. But link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -970,10 +1216,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1358,12 +1604,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
@@ -1376,11 +1622,12 @@
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="120" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" customWidth="1"/>
     <col min="1024" max="1024" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1408,1527 +1655,1768 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="115.2" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="J1" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="115.2" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="47.4" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="116.25" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="114" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="119.25" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="178.95" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="I8" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="156.6" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="79.5" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="79.5" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="165.6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="109.5" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="I13" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="141" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="91.95" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="213" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.6">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="167.4" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="55.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="93.6" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="197.4" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="103.8" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="219.6" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="55.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="41.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="55.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="27.6">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" ht="70.5" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="41.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" ht="134.4" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="55.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="148.5" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="116.25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="I33" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="41.4">
+      <c r="A34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="103.95" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="134.4" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="132.6" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="96.6">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" ht="41.4">
+      <c r="A40" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="41.4">
+      <c r="A41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="55.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="41.4">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="69">
+      <c r="A45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" ht="145.19999999999999" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="73.2" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="111" customHeight="1">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="69">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="78.599999999999994" customHeight="1">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="55.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="69">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="69">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="41.4">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="154.5" customHeight="1">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="114" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="I55" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" ht="123.75" customHeight="1">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="83.4" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="1:10" ht="80.400000000000006" customHeight="1">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="156.75" customHeight="1">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H59" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="119.25" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="I59" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="1:10" ht="103.2" customHeight="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="108" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="1:10" ht="142.19999999999999" customHeight="1">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="1:10" ht="82.8">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="69">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" ht="105" customHeight="1">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="178.95" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="156.6" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="79.5" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="165.6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="141" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="91.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="213" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="167.4" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="55.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="93.6" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="197.4" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="150.6" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="219.6" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="55.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="41.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="55.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="27.6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="70.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="41.4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="78" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="41.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="148.5" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="41.4">
-      <c r="A34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="103.95" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="118.95" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="82.95" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="96.6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="27.6">
-      <c r="A40" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" ht="41.4">
-      <c r="A41" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="55.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="41.4">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" ht="69">
-      <c r="A45" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="115.5" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" ht="73.2" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" ht="111" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" ht="55.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" ht="239.4" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" ht="55.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" ht="69">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" ht="69">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" ht="27.6">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" ht="154.5" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" ht="123.75" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="1:9" ht="83.4" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="1:9" ht="156.75" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:9" ht="82.5" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" spans="1:9" ht="108" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="1:9" ht="82.8">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" ht="69">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="1:9" ht="105" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="70" spans="1:9" s="12" customFormat="1">
-      <c r="A70" s="13" t="s">
+      <c r="F65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="70" spans="1:10" s="12" customFormat="1">
+      <c r="A70" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2946,7 +3434,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G9:G10 F24:G26 H48:H90 H2:H46</xm:sqref>
+          <xm:sqref>G10 F24:G26 H48:H90 H2:H46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -2955,7 +3443,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:G8 G11:G19 G21:G23 G48:G90 G27:G46</xm:sqref>
+          <xm:sqref>G2:G9 G27:G46 G48:G90 G11:G23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -2964,7 +3452,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G20 F2:F23 G47:H47 F27:F90</xm:sqref>
+          <xm:sqref>F27:F90 G47:H47 F2:F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3175,13 +3663,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -3348,7 +3836,7 @@
     </row>
     <row r="3" spans="1:5" ht="28.2">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3364,7 +3852,7 @@
     </row>
     <row r="5" spans="1:5" ht="55.8">
       <c r="A5" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3396,7 +3884,7 @@
     </row>
     <row r="9" spans="1:5" ht="69.599999999999994">
       <c r="A9" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3460,7 +3948,7 @@
     </row>
     <row r="17" spans="1:5" ht="42">
       <c r="A17" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3476,7 +3964,7 @@
     </row>
     <row r="19" spans="1:5" ht="28.2">
       <c r="A19" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3490,7 +3978,7 @@
     </row>
     <row r="21" spans="1:5" ht="42">
       <c r="A21" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3504,7 +3992,7 @@
     </row>
     <row r="23" spans="1:5" ht="28.2">
       <c r="A23" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3516,7 +4004,7 @@
     </row>
     <row r="25" spans="1:5" ht="42">
       <c r="A25" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\umode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F17EDDB-833E-4288-B6E8-F9E101828D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37808E56-D121-4B9E-8EEC-A7EDD8B4A041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="302">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -664,11 +664,6 @@
     <t>(Handled by "Prot" items above. PMA/PMP specifics must also be handled by those vplans.)</t>
   </si>
   <si>
-    <t>When obi has a transaction with `dbg` high, check that `prot[2:1]` is mmode.
-Note: Consider checking before MPU.
-Note: Both I-side and D-side.</t>
-  </si>
-  <si>
     <t>"When a hart resumes [...] The current privilege mode and virtualization mode are changed to that specified by prv and v."
 "prv [...] A debugger can change this value to change the hart’s privilege mode when exiting Debug Mode."
 "When dret is executed, [...] normal execution resumes at the privilege set by prv."</t>
@@ -776,11 +771,6 @@
 Coverage: Load/store in dmode, csr access in dmode.</t>
   </si>
   <si>
-    <t>Check that "mprven" is tied "1". Amend "DbdProt" asserts above wrt MPRV/mprven.
-Note: Mind ExecuteMmode above.
-Coverage: Cross "mprven" vs "MPRV" vs D-mode vs load/store/instr.</t>
-  </si>
-  <si>
     <t>Transition out of D-mode, ensure that executions starts in the same privilege mode as was indicated in dcsr.prv (dcsr.prv=M and dcsr.prv=U).
 Coverage: Observe, spesifically, return to U/M each.</t>
   </si>
@@ -797,10 +787,6 @@
 Coverage: Explicitly observe U/M both.</t>
   </si>
   <si>
-    <t>Track prot[2:1] on data loads/stores, observe retirements on rvfi, ensure the effective privilege mode of the retirement matches what was used on obi.
-Coverage: Explicitly observe U/M both.</t>
-  </si>
-  <si>
     <t>Checking: Handled by "InstrProt" below.
 Coverage: Instr fetched twice (same pc, different prot).</t>
   </si>
@@ -810,9 +796,6 @@
   <si>
     <t>A: ???
 COV: ???</t>
-  </si>
-  <si>
-    <t>A: ???</t>
   </si>
   <si>
     <t>(Responsibility of Interrupts and Clic vplans. Link to coverage here too.)</t>
@@ -903,11 +886,6 @@
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prv_entry
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_entry_u
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.cov_prv_entry_m
-DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
-  </si>
-  <si>
-    <t>A: ???
-COV: ???
 DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
   </si>
   <si>
@@ -919,10 +897,6 @@
 DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
   </si>
   <si>
-    <t>A: ???
-DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
-  </si>
-  <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.gen_mcounteren_clear[*].a_check
 DTC: cv32e40s/tests/programs/custom/mcounteren_priv_gen_test/</t>
   </si>
@@ -982,20 +956,6 @@
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mpp</t>
   </si>
   <si>
-    <t>A: ???
-COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mprv
-COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_loadstore_mprv_mpp</t>
-  </si>
-  <si>
-    <t>A: ???
-COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_umode_mprv
-COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dret_mprv_prv
-DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
-  </si>
-  <si>
-    <t>Awaiting new rvfi signals</t>
-  </si>
-  <si>
     <t>Waiting for Zc vplan linkage</t>
   </si>
   <si>
@@ -1008,13 +968,7 @@
     <t>Waiting for exceptions vplan linkage.</t>
   </si>
   <si>
-    <t>Waiting for RTL implementation.</t>
-  </si>
-  <si>
     <t>Waiting for debug vplan linkage.</t>
-  </si>
-  <si>
-    <t>Waiting for RTL bugfix.</t>
   </si>
   <si>
     <t>(Exceptions vplan should handle this. Link to coverage here too.)</t>
@@ -1072,23 +1026,101 @@
     <t>(Zc vplan should be responsible, but link to coverage here too.)</t>
   </si>
   <si>
-    <t>Waiting for RTL update.</t>
-  </si>
-  <si>
-    <t>Was waiting for RTL update.</t>
-  </si>
-  <si>
     <t>(Must be covered by the debug/triggers vplan. But link to coverage here too.)</t>
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_mprv_umode
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_mprv_prv
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_mprv_csr
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cov_umode_mprv
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dret_mprv_prv
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>Check that "mprven" is tied "1".
+Note: Mind ExecuteMmode above.
+Coverage: Cross "mprven" vs "MPRV" vs D-mode vs load/store/instr.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mprven_tied
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mprv
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_loadstore_mprv_mpp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Track prot[2:1] on data loads/stores, observe retirements on rvfi, ensure the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>effective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> privilege mode of the retirement matches what was used on obi.
+Coverage: Explicitly observe U/M both.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_dbgtrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_rvfivalid
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_noexception
+COV: ???
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_cause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_exception
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebug
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebugcause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_trap
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_umode_unmodified</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prot_iside_legal
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prot_dside_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot_equal
+COV: ???</t>
+  </si>
+  <si>
+    <t>When obi has a transaction with `dbg` high, check that `prot[2:1]` is M-mode on I-side, and "effective" mode on D-side.
+Note: Consider checking before MPU.
+Coverage: Observe U-/M-mode on D-side.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dbg_prot_iside
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dbg_prot_dside
+COV: ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1183,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1606,10 +1645,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
@@ -1656,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="115.2" customHeight="1">
@@ -1673,7 +1712,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>19</v>
@@ -1685,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J2" s="13"/>
     </row>
@@ -1711,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -1725,7 +1764,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>24</v>
@@ -1737,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J4" s="13"/>
     </row>
@@ -1753,7 +1792,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
@@ -1765,13 +1804,11 @@
         <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="114" customHeight="1">
+        <v>298</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="124.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -1781,7 +1818,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>19</v>
@@ -1793,13 +1830,11 @@
         <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="119.25" customHeight="1">
+        <v>299</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="126" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
@@ -1809,7 +1844,7 @@
         <v>185</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
@@ -1818,14 +1853,12 @@
         <v>26</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>277</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="178.95" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -1841,7 +1874,7 @@
         <v>187</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>19</v>
@@ -1853,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J8" s="13"/>
     </row>
@@ -1867,7 +1900,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
@@ -1879,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J9" s="13"/>
     </row>
@@ -1887,13 +1920,13 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>25</v>
@@ -1905,10 +1938,10 @@
         <v>24</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="79.5" customHeight="1">
@@ -1921,7 +1954,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>19</v>
@@ -1933,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J11" s="13"/>
     </row>
@@ -1947,7 +1980,7 @@
         <v>145</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>19</v>
@@ -1959,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J12" s="13"/>
     </row>
@@ -1985,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -1999,7 +2032,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>19</v>
@@ -2011,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -2025,7 +2058,7 @@
         <v>190</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>24</v>
@@ -2037,10 +2070,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="213" customHeight="1">
@@ -2053,7 +2086,7 @@
         <v>191</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>19</v>
@@ -2065,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -2091,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -2117,7 +2150,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J18" s="13"/>
     </row>
@@ -2131,7 +2164,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>19</v>
@@ -2143,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J19" s="13"/>
     </row>
@@ -2153,13 +2186,13 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>19</v>
@@ -2171,7 +2204,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -2184,10 +2217,10 @@
         <v>149</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>24</v>
@@ -2199,13 +2232,13 @@
         <v>24</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="103.8" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="103.95" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -2216,10 +2249,10 @@
         <v>162</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>19</v>
@@ -2231,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J22" s="13"/>
     </row>
@@ -2245,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>19</v>
@@ -2257,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J23" s="13"/>
     </row>
@@ -2271,7 +2304,7 @@
         <v>151</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>24</v>
@@ -2283,10 +2316,10 @@
         <v>24</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="55.2">
@@ -2299,7 +2332,7 @@
         <v>154</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>24</v>
@@ -2311,10 +2344,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="41.4">
@@ -2327,7 +2360,7 @@
         <v>157</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>24</v>
@@ -2339,10 +2372,10 @@
         <v>24</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="55.2">
@@ -2370,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.6">
@@ -2395,7 +2428,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J28" s="13"/>
     </row>
@@ -2409,7 +2442,7 @@
         <v>59</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>19</v>
@@ -2421,7 +2454,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J29" s="13"/>
     </row>
@@ -2447,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J30" s="13"/>
     </row>
@@ -2461,7 +2494,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>19</v>
@@ -2473,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J31" s="13"/>
     </row>
@@ -2487,7 +2520,7 @@
         <v>165</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>24</v>
@@ -2499,10 +2532,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="148.5" customHeight="1">
@@ -2515,7 +2548,7 @@
         <v>66</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>19</v>
@@ -2527,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J33" s="13"/>
     </row>
@@ -2557,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J34" s="13"/>
     </row>
@@ -2568,7 +2601,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>74</v>
@@ -2583,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J35" s="13"/>
     </row>
@@ -2609,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J36" s="13"/>
     </row>
@@ -2659,7 +2692,7 @@
         <v>18</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J38" s="13"/>
     </row>
@@ -2685,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J39" s="13"/>
     </row>
@@ -2713,7 +2746,7 @@
         <v>18</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J40" s="13"/>
     </row>
@@ -2731,7 +2764,7 @@
         <v>89</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>25</v>
@@ -2803,13 +2836,13 @@
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>19</v>
@@ -2821,11 +2854,9 @@
         <v>18</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>284</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="69">
       <c r="A45" s="13" t="s">
@@ -2853,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J45" s="13"/>
     </row>
@@ -2867,7 +2898,7 @@
         <v>98</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>19</v>
@@ -2879,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J46" s="13"/>
     </row>
@@ -2897,7 +2928,7 @@
         <v>133</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>24</v>
@@ -2909,13 +2940,13 @@
         <v>24</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="111" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="151.80000000000001">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
@@ -2925,7 +2956,7 @@
         <v>115</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>19</v>
@@ -2937,13 +2968,11 @@
         <v>18</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="69">
+        <v>296</v>
+      </c>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" ht="124.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
@@ -2965,11 +2994,9 @@
         <v>18</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>282</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" ht="78.599999999999994" customHeight="1">
       <c r="A50" s="13"/>
@@ -2981,7 +3008,7 @@
         <v>196</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>25</v>
@@ -2993,10 +3020,10 @@
         <v>24</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="55.2">
@@ -3009,7 +3036,7 @@
         <v>197</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>25</v>
@@ -3021,10 +3048,10 @@
         <v>24</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="69">
@@ -3037,7 +3064,7 @@
         <v>198</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>25</v>
@@ -3049,10 +3076,10 @@
         <v>24</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="69">
@@ -3065,7 +3092,7 @@
         <v>199</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>25</v>
@@ -3077,10 +3104,10 @@
         <v>24</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="41.4">
@@ -3093,7 +3120,7 @@
         <v>195</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>25</v>
@@ -3105,10 +3132,10 @@
         <v>24</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="154.5" customHeight="1">
@@ -3121,7 +3148,7 @@
         <v>120</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>19</v>
@@ -3133,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J55" s="13"/>
     </row>
@@ -3147,7 +3174,7 @@
         <v>121</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>19</v>
@@ -3159,11 +3186,9 @@
         <v>15</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>300</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="83.4" customHeight="1">
       <c r="A57" s="13"/>
@@ -3175,7 +3200,7 @@
         <v>172</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>24</v>
@@ -3201,7 +3226,7 @@
         <v>171</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>24</v>
@@ -3213,23 +3238,23 @@
         <v>24</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="156.75" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="151.80000000000001">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>19</v>
@@ -3241,11 +3266,11 @@
         <v>15</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="1:10" ht="103.2" customHeight="1">
+    <row r="60" spans="1:10" ht="151.80000000000001">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
@@ -3267,13 +3292,11 @@
         <v>18</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="108" customHeight="1">
+        <v>291</v>
+      </c>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:10" ht="96.6">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
@@ -3283,7 +3306,7 @@
         <v>128</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>19</v>
@@ -3295,11 +3318,11 @@
         <v>15</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="1:10" ht="142.19999999999999" customHeight="1">
+    <row r="62" spans="1:10" ht="124.2">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
@@ -3309,7 +3332,7 @@
         <v>140</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>19</v>
@@ -3321,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J62" s="13"/>
     </row>
@@ -3335,7 +3358,7 @@
         <v>173</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>24</v>
@@ -3347,10 +3370,10 @@
         <v>24</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="69">
@@ -3360,10 +3383,10 @@
         <v>131</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>24</v>
@@ -3379,17 +3402,17 @@
       </c>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="1:10" ht="105" customHeight="1">
+    <row r="65" spans="1:10" ht="27.6">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>24</v>

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\umode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\privileged_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37808E56-D121-4B9E-8EEC-A7EDD8B4A041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A65AE6-7AAF-4D93-A713-4748CF5D3676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Relaxedpriv</t>
   </si>
   <si>
-    <t>UnspecifiedBehav</t>
-  </si>
-  <si>
     <t>ResumePriv</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>PrvSupported</t>
   </si>
   <si>
-    <t>NativeTriggers</t>
-  </si>
-  <si>
     <t>Mprven0Simulate</t>
   </si>
   <si>
@@ -567,13 +561,7 @@
     <t>Executing uret gives an illegal instruction exception.</t>
   </si>
   <si>
-    <t>"Almost all instructions that change the privilege mode have unspecified behavior. This includes ecall, mret, sret, and uret."</t>
-  </si>
-  <si>
     <t>"Full permission checks, or a relaxed set of permission checks, will apply according to relaxedpriv."</t>
-  </si>
-  <si>
-    <t>"Triggers can be used for native debugging when action =0. If supported by the hart and desired by the debugger, triggers will often be programmed to have m=0 so that when they fire they cause a breakpoint exception to trap to a more privileged mode."</t>
   </si>
   <si>
     <t>Wherever there is an "assertion check" with "directed/random test", there is an implicit "check against RM".</t>
@@ -783,10 +771,6 @@
 Coverage: Observe attempts to write illegal/legal values.</t>
   </si>
   <si>
-    <t>Track prot[2:1] on instruction fetches on obi, observe retirements on rvfi, ensure the privilege mode of the instruction's execution matches what it was fetched as on obi.
-Coverage: Explicitly observe U/M both.</t>
-  </si>
-  <si>
     <t>Checking: Handled by "InstrProt" below.
 Coverage: Instr fetched twice (same pc, different prot).</t>
   </si>
@@ -805,9 +789,6 @@
   </si>
   <si>
     <t>(Is the responsibility of the debug/triggers vplan. Link to coverage here too.)</t>
-  </si>
-  <si>
-    <t>(The behavior is specified in the user manual. But the effects are debug-specific and not user-mode-specific so it is the responsibility of the debug vplan. Link to coverage here too.)</t>
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_no_unsupported_modes
@@ -822,11 +803,6 @@
   <si>
     <t>A: ???
 COV: ???</t>
-  </si>
-  <si>
-    <t>A: ???
-COV: ???
-DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_spp_zero</t>
@@ -877,10 +853,6 @@
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mcounteren_zeros</t>
-  </si>
-  <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_jvt_access
-COV: ???</t>
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prv_entry
@@ -956,19 +928,10 @@
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mpp</t>
   </si>
   <si>
-    <t>Waiting for Zc vplan linkage</t>
-  </si>
-  <si>
     <t>Waiting for CLIC vplan linkage.</t>
   </si>
   <si>
     <t>Waiting for interrupts vplans</t>
-  </si>
-  <si>
-    <t>Waiting for exceptions vplan linkage.</t>
-  </si>
-  <si>
-    <t>Waiting for debug vplan linkage.</t>
   </si>
   <si>
     <t>(Exceptions vplan should handle this. Link to coverage here too.)</t>
@@ -1017,16 +980,10 @@
 DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
   </si>
   <si>
-    <t>(There is only JVT, and must be handled by the Zc vplan. Link to cov here still.)</t>
-  </si>
-  <si>
     <t>(Relevant user-mode related functionality must be handled by the CLIC vplan. Link to cov here still)</t>
   </si>
   <si>
     <t>(Zc vplan should be responsible, but link to coverage here too.)</t>
-  </si>
-  <si>
-    <t>(Must be covered by the debug/triggers vplan. But link to coverage here too.)</t>
   </si>
   <si>
     <t>Comment</t>
@@ -1048,6 +1005,32 @@
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mprven_tied
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_mprv
 COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_cov_i.cg_inst.x_dmode_loadstore_mprv_mpp</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_dbgtrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_rvfivalid
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_noexception
+COV: ???
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_cause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_exception
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebug
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebugcause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_trap
+DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_umode_unmodified</t>
+  </si>
+  <si>
+    <t>Track prot[2:1] on instruction fetches on obi, observe retirements on rvfi, ensure the privilege mode of the instruction's execution matches what it was fetched as on obi.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prot_iside_legal</t>
   </si>
   <si>
     <r>
@@ -1070,57 +1053,53 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> privilege mode of the retirement matches what was used on obi.
-Coverage: Explicitly observe U/M both.</t>
+      <t xml:space="preserve"> privilege mode of the retirement matches what was used on obi.</t>
     </r>
-  </si>
-  <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_dbgtrap
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_rvfivalid
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_on_noexception
-COV: ???
-DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
-  </si>
-  <si>
-    <t>A: A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_cause
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_exception
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebug
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_nodebugcause
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_ebreaku_off_trap
-DTC: cv32e40s/tests/programs/custom/debug_priv_test/</t>
-  </si>
-  <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_umode_unmodified</t>
-  </si>
-  <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_instr_prot_legal
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prot_iside_legal
-COV: ???</t>
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot
 A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot_legal
 A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prot_dside_legal
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot_equal
-COV: ???</t>
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_data_prot_equal</t>
   </si>
   <si>
     <t>When obi has a transaction with `dbg` high, check that `prot[2:1]` is M-mode on I-side, and "effective" mode on D-side.
-Note: Consider checking before MPU.
-Coverage: Observe U-/M-mode on D-side.</t>
+Note: Consider checking before MPU</t>
   </si>
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dbg_prot_iside
-A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dbg_prot_dside
-COV: ???</t>
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dbg_prot_dside</t>
+  </si>
+  <si>
+    <t>JVT is the only URW CSR. Write and nread operations in User mode must be covered</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>A:a_dt_instr_trigger_hit_*, a_dt_load_trigger_hit_*, a_dt_store_trigger_hit_*, a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_tie_offs_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_warl_tselect, a_dt_warl_tdata1_general, a_dt_warl_tdata1_m2, a_dt_warl_tdata1_etrigger, a_dt_warl_tdata1_m6, a_dt_warl_tdata1_disabled, a_dt_warl_tdata2_etrigger, a_dt_warl_tinfo. </t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_jvt_access
+COV: TODO</t>
+  </si>
+  <si>
+    <t>A: a_dt_no_access_to_tdata_in_umode
+DTC: cv32e40s/tests/programs/custom/privilege_test/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_mret_pc_intended,
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_dret_pc_intended,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1191,6 +1170,12 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1225,7 +1210,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,6 +1244,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1643,30 +1634,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="120" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" customWidth="1"/>
-    <col min="1024" max="1024" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1695,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="115.2" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="115.15" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>19</v>
@@ -1724,11 +1715,11 @@
         <v>15</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="47.4" customHeight="1">
+    <row r="3" spans="1:10" ht="47.45" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -1750,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -1764,7 +1755,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>24</v>
@@ -1776,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J4" s="13"/>
     </row>
@@ -1792,7 +1783,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
@@ -1804,11 +1795,11 @@
         <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="124.2">
+    <row r="6" spans="1:10" ht="99.75">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -1818,7 +1809,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>19</v>
@@ -1830,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J6" s="13"/>
     </row>
@@ -1838,13 +1829,13 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
@@ -1856,11 +1847,11 @@
         <v>15</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="178.95" customHeight="1">
+    <row r="8" spans="1:10" ht="178.9" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
@@ -1871,10 +1862,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>19</v>
@@ -1886,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J8" s="13"/>
     </row>
@@ -1894,13 +1885,13 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
@@ -1912,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J9" s="13"/>
     </row>
@@ -1920,29 +1911,27 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>269</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="79.5" customHeight="1">
       <c r="A11" s="13"/>
@@ -1954,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>19</v>
@@ -1966,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J11" s="13"/>
     </row>
@@ -1977,10 +1966,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>19</v>
@@ -1992,11 +1981,11 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="165.6">
+    <row r="13" spans="1:10" ht="171">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -2018,7 +2007,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -2032,7 +2021,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>19</v>
@@ -2044,21 +2033,21 @@
         <v>15</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="91.95" customHeight="1">
+    <row r="15" spans="1:10" ht="91.9" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>24</v>
@@ -2070,10 +2059,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="213" customHeight="1">
@@ -2083,10 +2072,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>19</v>
@@ -2098,11 +2087,11 @@
         <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" ht="27.6">
+    <row r="17" spans="1:10" ht="28.5">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
@@ -2124,11 +2113,11 @@
         <v>18</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="167.4" customHeight="1">
+    <row r="18" spans="1:10" ht="167.45" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
@@ -2138,7 +2127,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>19</v>
@@ -2150,11 +2139,11 @@
         <v>15</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="55.2">
+    <row r="19" spans="1:10" ht="57">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
@@ -2164,7 +2153,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>19</v>
@@ -2176,23 +2165,23 @@
         <v>18</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="93.6" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>19</v>
@@ -2204,23 +2193,23 @@
         <v>15</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="197.4" customHeight="1">
+    <row r="21" spans="1:10" ht="197.45" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>24</v>
@@ -2232,13 +2221,11 @@
         <v>24</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="103.95" customHeight="1">
+        <v>294</v>
+      </c>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="103.9" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -2246,13 +2233,13 @@
         <v>55</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>19</v>
@@ -2264,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J22" s="13"/>
     </row>
@@ -2278,7 +2265,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>19</v>
@@ -2290,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J23" s="13"/>
     </row>
@@ -2298,13 +2285,13 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>24</v>
@@ -2316,23 +2303,23 @@
         <v>24</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="55.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="57">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>24</v>
@@ -2344,51 +2331,51 @@
         <v>24</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="41.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42.75">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="E26" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="J26" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="55.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="42.75">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>24</v>
@@ -2403,20 +2390,20 @@
         <v>24</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="27.6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>19</v>
@@ -2428,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J28" s="13"/>
     </row>
@@ -2442,7 +2429,7 @@
         <v>59</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>19</v>
@@ -2454,11 +2441,11 @@
         <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="41.4">
+    <row r="30" spans="1:10" ht="42.75">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
@@ -2480,11 +2467,11 @@
         <v>18</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="134.4" customHeight="1">
+    <row r="31" spans="1:10" ht="134.44999999999999" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
@@ -2494,7 +2481,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>19</v>
@@ -2506,21 +2493,21 @@
         <v>18</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="55.2">
+    <row r="32" spans="1:10" ht="57">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>24</v>
@@ -2532,11 +2519,9 @@
         <v>24</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>272</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="148.5" customHeight="1">
       <c r="A33" s="13"/>
@@ -2548,7 +2533,7 @@
         <v>66</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>19</v>
@@ -2560,11 +2545,11 @@
         <v>15</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" ht="41.4">
+    <row r="34" spans="1:10" ht="42.75">
       <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
@@ -2590,18 +2575,18 @@
         <v>18</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="103.95" customHeight="1">
+    <row r="35" spans="1:10" ht="103.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>74</v>
@@ -2616,11 +2601,11 @@
         <v>18</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" ht="134.4" customHeight="1">
+    <row r="36" spans="1:10" ht="134.44999999999999" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
@@ -2642,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J36" s="13"/>
     </row>
@@ -2653,7 +2638,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
@@ -2680,7 +2665,7 @@
         <v>80</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>19</v>
@@ -2692,11 +2677,11 @@
         <v>18</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" ht="96.6">
+    <row r="39" spans="1:10" ht="85.5">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
@@ -2718,23 +2703,23 @@
         <v>18</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" ht="41.4">
+    <row r="40" spans="1:10" ht="42.75">
       <c r="A40" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>19</v>
@@ -2746,11 +2731,11 @@
         <v>18</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" ht="41.4">
+    <row r="41" spans="1:10" ht="42.75">
       <c r="A41" s="13" t="s">
         <v>33</v>
       </c>
@@ -2764,7 +2749,7 @@
         <v>89</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>25</v>
@@ -2780,7 +2765,7 @@
       </c>
       <c r="J41" s="13"/>
     </row>
-    <row r="42" spans="1:10" ht="55.2">
+    <row r="42" spans="1:10" ht="57">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
@@ -2790,7 +2775,7 @@
         <v>91</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>25</v>
@@ -2806,7 +2791,7 @@
       </c>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="1:10" ht="41.4">
+    <row r="43" spans="1:10" ht="42.75">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13" t="s">
@@ -2816,7 +2801,7 @@
         <v>92</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>25</v>
@@ -2836,13 +2821,13 @@
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>19</v>
@@ -2854,11 +2839,11 @@
         <v>18</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" ht="69">
+    <row r="45" spans="1:10" ht="71.25">
       <c r="A45" s="13" t="s">
         <v>33</v>
       </c>
@@ -2869,7 +2854,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>96</v>
@@ -2884,11 +2869,11 @@
         <v>18</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" ht="145.19999999999999" customHeight="1">
+    <row r="46" spans="1:10" ht="145.15" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13" t="s">
@@ -2898,7 +2883,7 @@
         <v>98</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>19</v>
@@ -2910,11 +2895,11 @@
         <v>18</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="1:10" ht="73.2" customHeight="1">
+    <row r="47" spans="1:10" ht="73.150000000000006" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -2925,10 +2910,10 @@
         <v>113</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>24</v>
@@ -2940,13 +2925,11 @@
         <v>24</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="151.80000000000001">
+        <v>295</v>
+      </c>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="156.75">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
@@ -2956,7 +2939,7 @@
         <v>115</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>19</v>
@@ -2968,11 +2951,11 @@
         <v>18</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:10" ht="124.2">
+    <row r="49" spans="1:10" ht="128.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
@@ -2982,7 +2965,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>19</v>
@@ -2994,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="J49" s="13"/>
     </row>
@@ -3002,13 +2985,13 @@
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>25</v>
@@ -3019,24 +3002,22 @@
       <c r="H50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="55.2">
+      <c r="I50" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" ht="57">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>25</v>
@@ -3047,24 +3028,22 @@
       <c r="H51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="69">
+      <c r="I51" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" ht="71.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>25</v>
@@ -3075,24 +3054,22 @@
       <c r="H52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="69">
+      <c r="I52" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" ht="71.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>25</v>
@@ -3103,24 +3080,22 @@
       <c r="H53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="41.4">
+      <c r="I53" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>25</v>
@@ -3131,12 +3106,10 @@
       <c r="H54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>273</v>
-      </c>
+      <c r="I54" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" ht="154.5" customHeight="1">
       <c r="A55" s="13"/>
@@ -3148,7 +3121,7 @@
         <v>120</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>19</v>
@@ -3160,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J55" s="13"/>
     </row>
@@ -3174,7 +3147,7 @@
         <v>121</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>19</v>
@@ -3186,21 +3159,21 @@
         <v>15</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" ht="83.4" customHeight="1">
+    <row r="57" spans="1:10" ht="83.45" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>24</v>
@@ -3216,45 +3189,43 @@
       </c>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" ht="80.400000000000006" customHeight="1">
+    <row r="58" spans="1:10" ht="156.75">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="151.80000000000001">
+        <v>250</v>
+      </c>
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="1:10" ht="156.75">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>19</v>
@@ -3263,24 +3234,24 @@
         <v>23</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="1:10" ht="151.80000000000001">
+    <row r="60" spans="1:10" ht="99.75">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>19</v>
@@ -3289,76 +3260,76 @@
         <v>23</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="1:10" ht="96.6">
+    <row r="61" spans="1:10" ht="128.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="1:10" ht="124.2">
+    <row r="62" spans="1:10" ht="71.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="1:10" ht="82.8">
+    <row r="63" spans="1:10" ht="28.5">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>24</v>
@@ -3370,80 +3341,26 @@
         <v>24</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="69">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="27.6">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="70" spans="1:10" s="12" customFormat="1">
-      <c r="A70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="68" spans="1:9" s="12" customFormat="1">
+      <c r="A68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A68:I68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3457,7 +3374,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G10 F24:G26 H48:H90 H2:H46</xm:sqref>
+          <xm:sqref>H2:H46 F24:G26 H48:H88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -3466,7 +3383,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:G9 G27:G46 G48:G90 G11:G23</xm:sqref>
+          <xm:sqref>G27:G46 G2:G23 G48:G88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -3475,7 +3392,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F27:F90 G47:H47 F2:F23</xm:sqref>
+          <xm:sqref>G47:H47 F2:F23 F27:F88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3491,11 +3408,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -3601,13 +3518,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
-    <col min="4" max="4" width="92.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3624,7 +3541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="40.950000000000003" customHeight="1">
+    <row r="3" spans="2:5" ht="40.9" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -3636,7 +3553,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="28.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
@@ -3648,7 +3565,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" ht="42">
+    <row r="5" spans="2:5" ht="43.5">
       <c r="B5" s="6" t="s">
         <v>110</v>
       </c>
@@ -3662,37 +3579,37 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="30">
+      <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" ht="28.2">
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -3836,7 +3753,7 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
@@ -3857,9 +3774,9 @@
       <c r="D2" s="9"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="28.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3873,9 +3790,9 @@
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="55.8">
+    <row r="5" spans="1:5" ht="43.5">
       <c r="A5" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3889,7 +3806,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="28.2">
+    <row r="7" spans="1:5" ht="29.25">
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
@@ -3905,9 +3822,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="69.599999999999994">
+    <row r="9" spans="1:5" ht="72">
       <c r="A9" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3921,9 +3838,9 @@
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="69.599999999999994">
+    <row r="11" spans="1:5" ht="72">
       <c r="A11" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3937,9 +3854,9 @@
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:5" ht="43.5">
       <c r="A13" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3953,9 +3870,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="69.599999999999994">
+    <row r="15" spans="1:5" ht="57.75">
       <c r="A15" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3969,9 +3886,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="42">
+    <row r="17" spans="1:5" ht="43.5">
       <c r="A17" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3985,9 +3902,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="28.2">
+    <row r="19" spans="1:5" ht="29.25">
       <c r="A19" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3999,9 +3916,9 @@
       <c r="C20" s="6"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="42">
+    <row r="21" spans="1:5" ht="43.5">
       <c r="A21" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4013,9 +3930,9 @@
       <c r="C22" s="6"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="28.2">
+    <row r="23" spans="1:5" ht="29.25">
       <c r="A23" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4025,9 +3942,9 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="42">
+    <row r="25" spans="1:5" ht="43.5">
       <c r="A25" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_UserMode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\privileged_spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hefegran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A65AE6-7AAF-4D93-A713-4748CF5D3676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DA8124-A142-354F-94F0-97B14208EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="298">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -1074,17 +1074,10 @@
     <t>JVT is the only URW CSR. Write and nread operations in User mode must be covered</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>A:a_dt_instr_trigger_hit_*, a_dt_load_trigger_hit_*, a_dt_store_trigger_hit_*, a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_tie_offs_*</t>
   </si>
   <si>
     <t xml:space="preserve">A: a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_warl_tselect, a_dt_warl_tdata1_general, a_dt_warl_tdata1_m2, a_dt_warl_tdata1_etrigger, a_dt_warl_tdata1_m6, a_dt_warl_tdata1_disabled, a_dt_warl_tdata2_etrigger, a_dt_warl_tinfo. </t>
-  </si>
-  <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_jvt_access
-COV: TODO</t>
   </si>
   <si>
     <t>A: a_dt_no_access_to_tdata_in_umode
@@ -1093,6 +1086,18 @@
   <si>
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_mret_pc_intended,
 A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_dret_pc_intended,</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_jvt_access
+DTC: cv32e40s/tests/programs/custom/zcmt_test</t>
+  </si>
+  <si>
+    <t>DTC: cv32e40s/tests/programs/custom/zcmt_test :: jvt_rw_m, jvt_rw_u_illegal, jvt_rw_u_legal</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.clic_assert_i.a_mscratchcsw_value
+COV: ???
+DTC: cv32e40s/tests/programs/custom/clic :: rw_mscratchcsw, rw_mscratchcsw_illegal</t>
   </si>
 </sst>
 </file>
@@ -1174,6 +1179,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1243,13 +1249,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1636,28 +1642,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="120" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="1024" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="32">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="115.15" customHeight="1">
+    <row r="2" spans="1:10" ht="115.25" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="47.45" customHeight="1">
+    <row r="3" spans="1:10" ht="47.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -1799,7 +1805,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="99.75">
+    <row r="6" spans="1:10" ht="112">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -1851,7 +1857,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="178.9" customHeight="1">
+    <row r="8" spans="1:10" ht="179" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
@@ -1881,7 +1887,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="156.6" customHeight="1">
+    <row r="9" spans="1:10" ht="156.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
@@ -1929,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J10" s="13"/>
     </row>
@@ -1985,7 +1991,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="171">
+    <row r="13" spans="1:10" ht="208">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -2037,7 +2043,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="91.9" customHeight="1">
+    <row r="15" spans="1:10" ht="92" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
@@ -2059,7 +2065,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>261</v>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" ht="28.5">
+    <row r="17" spans="1:10" ht="32">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
@@ -2117,7 +2123,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="167.45" customHeight="1">
+    <row r="18" spans="1:10" ht="167.5" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
@@ -2143,7 +2149,7 @@
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="57">
+    <row r="19" spans="1:10" ht="80">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
@@ -2169,7 +2175,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" ht="93.6" customHeight="1">
+    <row r="20" spans="1:10" ht="93.5" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>144</v>
       </c>
@@ -2197,7 +2203,7 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="197.45" customHeight="1">
+    <row r="21" spans="1:10" ht="197.5" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>142</v>
       </c>
@@ -2221,11 +2227,11 @@
         <v>24</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="103.9" customHeight="1">
+    <row r="22" spans="1:10" ht="104" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -2255,7 +2261,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="219.6" customHeight="1">
+    <row r="23" spans="1:10" ht="219.5" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13" t="s">
@@ -2309,7 +2315,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="57">
+    <row r="25" spans="1:10" ht="80">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
@@ -2337,7 +2343,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="42.75">
+    <row r="26" spans="1:10" ht="48">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
@@ -2365,7 +2371,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="42.75">
+    <row r="27" spans="1:10" ht="64">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
@@ -2393,7 +2399,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5">
+    <row r="28" spans="1:10" ht="48">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
@@ -2445,7 +2451,7 @@
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="42.75">
+    <row r="30" spans="1:10" ht="64">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
@@ -2471,7 +2477,7 @@
       </c>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="134.44999999999999" customHeight="1">
+    <row r="31" spans="1:10" ht="134.5" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
@@ -2497,7 +2503,7 @@
       </c>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="57">
+    <row r="32" spans="1:10" ht="96">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
@@ -2519,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J32" s="13"/>
     </row>
@@ -2549,7 +2555,7 @@
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" ht="42.75">
+    <row r="34" spans="1:10" ht="48">
       <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2585,7 @@
       </c>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="103.9" customHeight="1">
+    <row r="35" spans="1:10" ht="104" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
@@ -2605,7 +2611,7 @@
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" ht="134.44999999999999" customHeight="1">
+    <row r="36" spans="1:10" ht="134.5" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
@@ -2631,7 +2637,7 @@
       </c>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="32">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
@@ -2655,7 +2661,7 @@
       </c>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:10" ht="132.6" customHeight="1">
+    <row r="38" spans="1:10" ht="132.5" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
@@ -2681,7 +2687,7 @@
       </c>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" ht="85.5">
+    <row r="39" spans="1:10" ht="112">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
@@ -2707,7 +2713,7 @@
       </c>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" ht="42.75">
+    <row r="40" spans="1:10" ht="48">
       <c r="A40" s="13" t="s">
         <v>165</v>
       </c>
@@ -2735,7 +2741,7 @@
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" ht="42.75">
+    <row r="41" spans="1:10" ht="64">
       <c r="A41" s="13" t="s">
         <v>33</v>
       </c>
@@ -2765,7 +2771,7 @@
       </c>
       <c r="J41" s="13"/>
     </row>
-    <row r="42" spans="1:10" ht="57">
+    <row r="42" spans="1:10" ht="64">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
@@ -2791,7 +2797,7 @@
       </c>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="1:10" ht="42.75">
+    <row r="43" spans="1:10" ht="48">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13" t="s">
@@ -2843,7 +2849,7 @@
       </c>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" ht="71.25">
+    <row r="45" spans="1:10" ht="96">
       <c r="A45" s="13" t="s">
         <v>33</v>
       </c>
@@ -2873,7 +2879,7 @@
       </c>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" ht="145.15" customHeight="1">
+    <row r="46" spans="1:10" ht="145.25" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13" t="s">
@@ -2899,7 +2905,7 @@
       </c>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="1:10" ht="73.150000000000006" customHeight="1">
+    <row r="47" spans="1:10" ht="73.25" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -2925,11 +2931,11 @@
         <v>24</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:10" ht="156.75">
+    <row r="48" spans="1:10" ht="176">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
@@ -2955,7 +2961,7 @@
       </c>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:10" ht="128.25">
+    <row r="49" spans="1:10" ht="144">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
@@ -2981,7 +2987,7 @@
       </c>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="1:10" ht="78.599999999999994" customHeight="1">
+    <row r="50" spans="1:10" ht="78.5" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -3002,12 +3008,12 @@
       <c r="H50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="15" t="s">
-        <v>292</v>
+      <c r="I50" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="1:10" ht="57">
+    <row r="51" spans="1:10" ht="64">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
@@ -3028,12 +3034,12 @@
       <c r="H51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>292</v>
+      <c r="I51" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="1:10" ht="71.25">
+    <row r="52" spans="1:10" ht="80">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
@@ -3054,12 +3060,12 @@
       <c r="H52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="16" t="s">
-        <v>293</v>
+      <c r="I52" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" ht="71.25">
+    <row r="53" spans="1:10" ht="80">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
@@ -3080,12 +3086,12 @@
       <c r="H53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>293</v>
+      <c r="I53" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:10" ht="30">
+    <row r="54" spans="1:10" ht="48">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
@@ -3106,8 +3112,8 @@
       <c r="H54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>293</v>
+      <c r="I54" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="J54" s="13"/>
     </row>
@@ -3163,7 +3169,7 @@
       </c>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" ht="83.45" customHeight="1">
+    <row r="57" spans="1:10" ht="83.5" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
@@ -3189,7 +3195,7 @@
       </c>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" ht="156.75">
+    <row r="58" spans="1:10" ht="176">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13" t="s">
@@ -3215,7 +3221,7 @@
       </c>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:10" ht="156.75">
+    <row r="59" spans="1:10" ht="176">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
@@ -3241,7 +3247,7 @@
       </c>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="1:10" ht="99.75">
+    <row r="60" spans="1:10" ht="112">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
@@ -3267,7 +3273,7 @@
       </c>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="1:10" ht="128.25">
+    <row r="61" spans="1:10" ht="144">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
@@ -3293,7 +3299,7 @@
       </c>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="1:10" ht="71.25">
+    <row r="62" spans="1:10" ht="96">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
@@ -3319,7 +3325,7 @@
       </c>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="1:10" ht="28.5">
+    <row r="63" spans="1:10" ht="32">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
@@ -3346,17 +3352,17 @@
       <c r="J63" s="13"/>
     </row>
     <row r="68" spans="1:9" s="12" customFormat="1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3408,11 +3414,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -3518,13 +3524,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" customWidth="1"/>
-    <col min="4" max="4" width="92.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3541,7 +3547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="40.9" customHeight="1">
+    <row r="3" spans="2:5" ht="41" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -3553,7 +3559,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="32">
       <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
@@ -3565,7 +3571,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" ht="43.5">
+    <row r="5" spans="2:5" ht="48">
       <c r="B5" s="6" t="s">
         <v>110</v>
       </c>
@@ -3577,7 +3583,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" ht="16">
       <c r="B6" s="6" t="s">
         <v>142</v>
       </c>
@@ -3589,7 +3595,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="30">
+    <row r="7" spans="2:5" ht="32">
       <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
@@ -3601,7 +3607,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" ht="16">
       <c r="B8" s="6" t="s">
         <v>165</v>
       </c>
@@ -3753,12 +3759,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
@@ -3774,7 +3780,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="32">
       <c r="A3" s="6" t="s">
         <v>174</v>
       </c>
@@ -3790,7 +3796,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="43.5">
+    <row r="5" spans="1:5" ht="64">
       <c r="A5" s="6" t="s">
         <v>176</v>
       </c>
@@ -3806,7 +3812,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25">
+    <row r="7" spans="1:5" ht="48">
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
@@ -3822,7 +3828,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="72">
+    <row r="9" spans="1:5" ht="112">
       <c r="A9" s="6" t="s">
         <v>175</v>
       </c>
@@ -3838,7 +3844,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="72">
+    <row r="11" spans="1:5" ht="96">
       <c r="A11" s="6" t="s">
         <v>137</v>
       </c>
@@ -3854,7 +3860,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="43.5">
+    <row r="13" spans="1:5" ht="64">
       <c r="A13" s="6" t="s">
         <v>150</v>
       </c>
@@ -3870,7 +3876,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="57.75">
+    <row r="15" spans="1:5" ht="80">
       <c r="A15" s="6" t="s">
         <v>154</v>
       </c>
@@ -3886,7 +3892,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="43.5">
+    <row r="17" spans="1:5" ht="48">
       <c r="A17" s="6" t="s">
         <v>170</v>
       </c>
@@ -3902,7 +3908,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25">
+    <row r="19" spans="1:5" ht="32">
       <c r="A19" s="6" t="s">
         <v>171</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="43.5">
+    <row r="21" spans="1:5" ht="48">
       <c r="A21" s="6" t="s">
         <v>172</v>
       </c>
@@ -3930,7 +3936,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="29.25">
+    <row r="23" spans="1:5" ht="32">
       <c r="A23" s="6" t="s">
         <v>177</v>
       </c>
@@ -3942,7 +3948,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="43.5">
+    <row r="25" spans="1:5" ht="64">
       <c r="A25" s="6" t="s">
         <v>178</v>
       </c>
